--- a/output.xlsx
+++ b/output.xlsx
@@ -1,37 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/ryan_powers3_va_gov/Documents/Documents/Medallia Text Data Analysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59D2BFD3F0D920129B5533553088B35299F71E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63F555CE-9B7A-4B83-9785-36CF2342D73C}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Human Tag</t>
+  </si>
+  <si>
+    <t>Human Sentiment</t>
+  </si>
+  <si>
+    <t>Prompt 1 Tag</t>
+  </si>
+  <si>
+    <t>Prompt 1 Sentiment</t>
+  </si>
+  <si>
+    <t>The layout is more simple than before.</t>
+  </si>
+  <si>
+    <t>Ease of use</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Because I asked to send a message regarding canceling an appt due to continued reschedule of my Dental and you sent me to a Survey and now I am here performing a survey instead I should be cancelling my Dental Appt</t>
+  </si>
+  <si>
+    <t>Early pop up</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Used to be able to put in a refill request for my Pregabalin right after receiving the current month but almost impossible to do now.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +105,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,202 +432,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="5" width="32.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Input</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Human Tag</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Human Sentiment</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Prompt 1 Tag</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Prompt 1 Sentiment</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Prompt 2 Tag</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Prompt 2 Sentiment</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>The layout is more simple than before.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ease of use</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ease of use</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Benefits</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Because I asked to send a message regarding canceling an appt due to continued reschedule of my Dental and you sent me to a Survey and now I am here performing a survey instead I should be cancelling my Dental Appt</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Early pop up</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Benefits</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
+    <row r="3" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Great service</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Triage Group</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Used to be able to put in a refill request for my Pregabalin right after receiving the current month but almost impossible to do now.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ease of use</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ease of use</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Triage Group</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
+    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/ryan_powers3_va_gov/Documents/Documents/Medallia Text Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59D2BFD3F0D920129B5533553088B35299F71E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63F555CE-9B7A-4B83-9785-36CF2342D73C}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD330DB3347DA291159ABD8745551EBE4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CD9CE6C-52E2-4A65-A886-5AC82504C741}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="315" yWindow="1560" windowWidth="25650" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t>Input</t>
   </si>
@@ -31,10 +44,16 @@
     <t>Human Sentiment</t>
   </si>
   <si>
-    <t>Prompt 1 Tag</t>
-  </si>
-  <si>
-    <t>Prompt 1 Sentiment</t>
+    <t>Tagging Prompt 1 Tag</t>
+  </si>
+  <si>
+    <t>Tagging Prompt 1 Confidence</t>
+  </si>
+  <si>
+    <t>Sentiment Prompt 1 Sentiment</t>
+  </si>
+  <si>
+    <t>Sentiment Prompt 1 Confidence</t>
   </si>
   <si>
     <t>The layout is more simple than before.</t>
@@ -46,35 +65,83 @@
     <t>Positive</t>
   </si>
   <si>
+    <t>Neutral</t>
+  </si>
+  <si>
     <t>Because I asked to send a message regarding canceling an appt due to continued reschedule of my Dental and you sent me to a Survey and now I am here performing a survey instead I should be cancelling my Dental Appt</t>
   </si>
   <si>
     <t>Early pop up</t>
   </si>
   <si>
-    <t>Neutral</t>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>Sign in/access</t>
+  </si>
+  <si>
+    <t>Used to be able to put in a refill request for my Pregabalin right after receiving the current month but almost impossible to do now.</t>
+  </si>
+  <si>
+    <t>Findability/Nav</t>
+  </si>
+  <si>
+    <t>because this new sign in sucks. takes twice as long to sign in.</t>
+  </si>
+  <si>
+    <t>Page did not show the recent past refill request for my prescription - almost as if it was overwritten by a future refill, so I have to msg my PCP.</t>
+  </si>
+  <si>
+    <t>Making sure my profile information is up to date.</t>
+  </si>
+  <si>
+    <t>Answered Question</t>
+  </si>
+  <si>
+    <t>Could not access messaging app.</t>
+  </si>
+  <si>
+    <t>Iâ€™m a Vietnam vet, that means Iâ€™m an older person, older people have a harder time with technology. Had to have mygranddaughter helped me. Sheâ€™s not here today so Iâ€™m trying to navigate this on my own. Itâ€™s not easy. Not all of us were born With a smart phone or a tablet our hands.</t>
+  </si>
+  <si>
+    <t>Everything keeps changing</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>hard to navigate</t>
   </si>
   <si>
     <t>Error</t>
   </si>
   <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Great service</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Used to be able to put in a refill request for my Pregabalin right after receiving the current month but almost impossible to do now.</t>
+    <t>Access is sometimes problematic</t>
+  </si>
+  <si>
+    <t>Being able to message providers is a crucial part of health care.  I was easily able to log in and message a provider, therefore my expectations were met.</t>
+  </si>
+  <si>
+    <t>I am unable to contact the VA through phone or online and I am unable to update my authorization code. I have to wait for hours on hold. Create an email box, or some other way for us to get our needs met. Its impossible to even get some on the phone and then they immediately transfer you to someone who cant help. This is ridiculous.</t>
+  </si>
+  <si>
+    <t>ACCURACY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +154,27 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -123,14 +204,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,18 +514,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="5" width="32.453125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,73 +538,347 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0.75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>0.75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>0.75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
+      <c r="E8">
+        <v>0.75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>0.75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>0.75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>0.75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3">
+        <f>COUNTIF(E2:E15, "1") / COUNTA(E2:E15)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3">
+        <f>COUNTIF(G2:G15, "1") / COUNTA(G2:G15)</f>
+        <v>0.8571428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dvagov-my.sharepoint.com/personal/ryan_powers3_va_gov/Documents/Documents/Medallia Text Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD330DB3347DA291159ABD8745551EBE4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CD9CE6C-52E2-4A65-A886-5AC82504C741}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD300D95BBF38261159CB30714DC3EBE6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDC5B33F-F69C-488A-9854-701783782BF7}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="1560" windowWidth="25650" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,24 +77,24 @@
     <t>Negative</t>
   </si>
   <si>
+    <t>Great service</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Great service</t>
+    <t>Used to be able to put in a refill request for my Pregabalin right after receiving the current month but almost impossible to do now.</t>
+  </si>
+  <si>
+    <t>Findability/Nav</t>
+  </si>
+  <si>
+    <t>because this new sign in sucks. takes twice as long to sign in.</t>
   </si>
   <si>
     <t>Sign in/access</t>
   </si>
   <si>
-    <t>Used to be able to put in a refill request for my Pregabalin right after receiving the current month but almost impossible to do now.</t>
-  </si>
-  <si>
-    <t>Findability/Nav</t>
-  </si>
-  <si>
-    <t>because this new sign in sucks. takes twice as long to sign in.</t>
-  </si>
-  <si>
     <t>Page did not show the recent past refill request for my prescription - almost as if it was overwritten by a future refill, so I have to msg my PCP.</t>
   </si>
   <si>
@@ -119,16 +119,16 @@
     <t>hard to navigate</t>
   </si>
   <si>
+    <t>Access is sometimes problematic</t>
+  </si>
+  <si>
+    <t>Being able to message providers is a crucial part of health care.  I was easily able to log in and message a provider, therefore my expectations were met.</t>
+  </si>
+  <si>
+    <t>I am unable to contact the VA through phone or online and I am unable to update my authorization code. I have to wait for hours on hold. Create an email box, or some other way for us to get our needs met. Its impossible to even get some on the phone and then they immediately transfer you to someone who cant help. This is ridiculous.</t>
+  </si>
+  <si>
     <t>Error</t>
-  </si>
-  <si>
-    <t>Access is sometimes problematic</t>
-  </si>
-  <si>
-    <t>Being able to message providers is a crucial part of health care.  I was easily able to log in and message a provider, therefore my expectations were met.</t>
-  </si>
-  <si>
-    <t>I am unable to contact the VA through phone or online and I am unable to update my authorization code. I have to wait for hours on hold. Create an email box, or some other way for us to get our needs met. Its impossible to even get some on the phone and then they immediately transfer you to someone who cant help. This is ridiculous.</t>
   </si>
   <si>
     <t>ACCURACY</t>
@@ -517,7 +517,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,10 +579,10 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -593,19 +593,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -625,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0.75</v>
@@ -639,16 +639,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -665,13 +665,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -694,10 +694,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -711,13 +711,13 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -746,10 +746,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -763,16 +763,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
         <v>0.75</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -780,16 +780,16 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -800,16 +800,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -846,19 +846,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -873,12 +873,12 @@
       </c>
       <c r="E16" s="3">
         <f>COUNTIF(E2:E15, "1") / COUNTA(E2:E15)</f>
-        <v>0.5</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="3">
         <f>COUNTIF(G2:G15, "1") / COUNTA(G2:G15)</f>
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,19 +461,29 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Tagging Prompt 1 Model</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Sentiment Prompt 1 Sentiment</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Sentiment Prompt 1 Confidence</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Sentiment Prompt 1 Model</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The layout is more simple than before.</t>
+          <t>Not user friendly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,7 +493,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -496,22 +506,32 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Because I asked to send a message regarding canceling an appt due to continued reschedule of my Dental and you sent me to a Survey and now I am here performing a survey instead I should be cancelling my Dental Appt</t>
+          <t>First of I was not notified of the change in getting a Dexcom item refilled. I tried to get it refilled around the seventh of this month. By the time it got ordered by a Nurse that helped me mine had expired. Then when it did get sent on the 14th I still have not received it on the 18th. I can not use my Dexcom with out the Transmitter so I am sticking my fingers again. The changes you have made on this site discourages me from wanting to use it. If I don't have my phone with me I can't get on. It was good and you have made it worse.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Early pop up</t>
+          <t>Sign in/access</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,73 +541,93 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Early pop up</t>
+          <t>Integration</t>
         </is>
       </c>
       <c r="E3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Great service</t>
+          <t>Your secure messaging is ridiculous. I had a conversation in progress and now it says I cannot use secure messaging. Why is it so difficult to work with anything on the VA site?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Sign in/access</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="E4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Used to be able to put in a refill request for my Pregabalin right after receiving the current month but almost impossible to do now.</t>
+          <t>All worked</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ease of use</t>
+          <t>Answered Question</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Findability/Nav</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -595,341 +635,64 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>because this new sign in sucks. takes twice as long to sign in.</t>
+          <t>website easy to use and I can usually find what I need, if not someone is always available to help</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sign in/access</t>
+          <t>Findability/Nav</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sign in/access</t>
+          <t>Ease of use</t>
         </is>
       </c>
       <c r="E6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Page did not show the recent past refill request for my prescription - almost as if it was overwritten by a future refill, so I have to msg my PCP.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Findability/Nav</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Findability/Nav</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Making sure my profile information is up to date.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Answered Question</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Answered Question</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Could not access messaging app.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sign in/access</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Sign in/access</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Iâ€™m a Vietnam vet, that means Iâ€™m an older person, older people have a harder time with technology. Had to have mygranddaughter helped me. Sheâ€™s not here today so Iâ€™m trying to navigate this on my own. Itâ€™s not easy. Not all of us were born With a smart phone or a tablet our hands.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ease of use</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Ease of use</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Everything keeps changing</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Integration</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Integration</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>hard to navigate</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Findability/Nav</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Findability/Nav</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Access is sometimes problematic</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Sign in/access</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Sign in/access</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Being able to message providers is a crucial part of health care.  I was easily able to log in and message a provider, therefore my expectations were met.</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Ease of use</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Answered Question</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>I am unable to contact the VA through phone or online and I am unable to update my authorization code. I have to wait for hours on hold. Create an email box, or some other way for us to get our needs met. Its impossible to even get some on the phone and then they immediately transfer you to someone who cant help. This is ridiculous.</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Sign in/access</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo</t>
+        </is>
       </c>
     </row>
   </sheetData>
